--- a/pythonAccessData/data_srcs/online.xlsx
+++ b/pythonAccessData/data_srcs/online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\PycharmProjects\pythonDatabase\pythonAccessData\data_srcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DB577-A4E7-4F85-B537-5A78828BDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B20539-B6A9-489D-8CF0-F0B5D651BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/pythonAccessData/data_srcs/online.xlsx
+++ b/pythonAccessData/data_srcs/online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\PycharmProjects\pythonDatabase\pythonAccessData\data_srcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B20539-B6A9-489D-8CF0-F0B5D651BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DB577-A4E7-4F85-B537-5A78828BDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
